--- a/biology/Zoologie/Diversinervus/Diversinervus.xlsx
+++ b/biology/Zoologie/Diversinervus/Diversinervus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversinervus est un genre d'insectes diptères de la famille des Encyrtidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 mars 2023) :
 Diversinervus cervantesi (Girault, 1933)
 Diversinervus desantisi Compere, 1931
 Diversinervus elegans Silvestri, 1915
@@ -553,10 +567,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Diversinervus Silvestri, 1915[1].
-Diversinervus a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Diversinervus Silvestri, 1915.
+Diversinervus a pour synonyme :
 Cheiloneuroides Girault, 1915</t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) F. Silvestri, 1915, « Contributo all conoscenza degli insetti dell'olivo dell'Eritrea e dell'Africa meridionalei », Bollettino del Laboratorio di zoologia generale e agraria della R. Scuola superiore d'agricoltura in Portici, vol. 9, p. 240–334 (lire en ligne, p. 304, fig. LIX).</t>
         </is>
